--- a/Flight Payload/Perovskite Performance/P1_Assembled/X018_PostVibe/9Dec2023.xlsx
+++ b/Flight Payload/Perovskite Performance/P1_Assembled/X018_PostVibe/9Dec2023.xlsx
@@ -504,7 +504,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E2" t="n">
-        <v>1688.241298985489</v>
+        <v>16.8824129898549</v>
       </c>
       <c r="F2" t="n">
         <v>1.517877739331027</v>
@@ -548,7 +548,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E3" t="n">
-        <v>1826.114338402637</v>
+        <v>18.26114338402638</v>
       </c>
       <c r="F3" t="n">
         <v>1.517877739331027</v>
@@ -592,7 +592,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E4" t="n">
-        <v>1800.790718917855</v>
+        <v>18.00790718917855</v>
       </c>
       <c r="F4" t="n">
         <v>1.517877739331027</v>
@@ -636,7 +636,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E5" t="n">
-        <v>1631.966589019306</v>
+        <v>16.31966589019306</v>
       </c>
       <c r="F5" t="n">
         <v>1.391387927720108</v>
@@ -680,7 +680,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E6" t="n">
-        <v>1603.829234036215</v>
+        <v>16.03829234036215</v>
       </c>
       <c r="F6" t="n">
         <v>1.391387927720108</v>
@@ -724,7 +724,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E7" t="n">
-        <v>1631.966589019306</v>
+        <v>16.31966589019306</v>
       </c>
       <c r="F7" t="n">
         <v>1.391387927720108</v>
@@ -768,7 +768,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E8" t="n">
-        <v>1795.163247921237</v>
+        <v>17.95163247921236</v>
       </c>
       <c r="F8" t="n">
         <v>1.644367550941945</v>
@@ -812,7 +812,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E9" t="n">
-        <v>1826.114338402637</v>
+        <v>18.26114338402638</v>
       </c>
       <c r="F9" t="n">
         <v>1.517877739331027</v>
@@ -856,7 +856,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E10" t="n">
-        <v>1795.163247921237</v>
+        <v>17.95163247921236</v>
       </c>
       <c r="F10" t="n">
         <v>1.517877739331027</v>
@@ -900,7 +900,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E11" t="n">
-        <v>1660.103944002398</v>
+        <v>16.60103944002398</v>
       </c>
       <c r="F11" t="n">
         <v>1.517877739331027</v>
@@ -944,7 +944,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E12" t="n">
-        <v>1519.41716908694</v>
+        <v>15.1941716908694</v>
       </c>
       <c r="F12" t="n">
         <v>1.517877739331027</v>
@@ -988,7 +988,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E13" t="n">
-        <v>1547.554524070032</v>
+        <v>15.47554524070032</v>
       </c>
       <c r="F13" t="n">
         <v>1.517877739331027</v>
